--- a/medicine/Enfance/Thierry_Nouveau/Thierry_Nouveau.xlsx
+++ b/medicine/Enfance/Thierry_Nouveau/Thierry_Nouveau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thierry Nouveau, né à Tours le 6 novembre 1970[1], est un dessinateur de bande dessinée et illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thierry Nouveau, né à Tours le 6 novembre 1970, est un dessinateur de bande dessinée et illustrateur français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thierry Nouveau étudie les beaux-arts à Rennes pendant cinq ans[2] avant de s'installer comme illustrateur indépendant pour la presse et des éditeurs jeunesse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thierry Nouveau étudie les beaux-arts à Rennes pendant cinq ans avant de s'installer comme illustrateur indépendant pour la presse et des éditeurs jeunesse.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Série Léo et Lola[3],[4] (scénario de Marc Cantin) aux éditions Le Lombard puis aux éditions Clair de Lune.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série Léo et Lola, (scénario de Marc Cantin) aux éditions Le Lombard puis aux éditions Clair de Lune.
 Série Ma mère et moi (scénario de Marc Cantin) aux éditions Clair de Lune.
 Série Léo &amp; Lola Super (scénario de Marc Cantin et Isabel) aux éditions Clair de Lune.
 Théa cavalière (scénario de Judith Peignen et Emma Schulz) aux éditions vents d'ouest.
-Série Les Énigmes de Léa[5] (scénario de Philippe Larbier puis Judith Peignen), Bamboo Édition
+Série Les Énigmes de Léa (scénario de Philippe Larbier puis Judith Peignen), Bamboo Édition
 Les virus même plus peur ! (scénario de Christophe Tricart) aux éditions Lutin conseil pour enfants.</t>
         </is>
       </c>
